--- a/tradept/Excel/Localization/Main/english/J剧情_StoryEvents_zyc_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J剧情_StoryEvents_zyc_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0733774-0688-40F7-A867-683CCD6864CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A095B45F-0BE9-4772-8511-1F9C29C02F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -513,7 +513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
